--- a/controller/src/main/resources/jxls_templates/bumenrenjianfei.xlsx
+++ b/controller/src/main/resources/jxls_templates/bumenrenjianfei.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.I7HNJ62BKRDWMSV\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PFANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49A2774D-AF98-434E-AD24-CB412B9743D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB34D33-5671-466E-A6A7-80A8B473D9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>员工RANK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>4月●</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -48,33 +84,15 @@
   </si>
   <si>
     <t>3月</t>
-  </si>
-  <si>
-    <t>4月</t>
-  </si>
-  <si>
-    <t>5月</t>
-  </si>
-  <si>
-    <t>6月</t>
-  </si>
-  <si>
-    <t>7月</t>
-  </si>
-  <si>
-    <t>8月</t>
-  </si>
-  <si>
-    <t>9月</t>
-  </si>
-  <si>
-    <t>10月</t>
-  </si>
-  <si>
-    <t>11月</t>
-  </si>
-  <si>
-    <t>12月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -402,20 +420,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -455,6 +473,53 @@
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>2021</v>
+      </c>
+      <c r="D2">
+        <v>50099</v>
+      </c>
+      <c r="E2">
+        <v>5005</v>
+      </c>
+      <c r="F2">
+        <v>4999</v>
+      </c>
+      <c r="G2">
+        <v>4995</v>
+      </c>
+      <c r="H2">
+        <v>4899</v>
+      </c>
+      <c r="I2">
+        <v>4895</v>
+      </c>
+      <c r="J2">
+        <v>4399</v>
+      </c>
+      <c r="K2">
+        <v>4299</v>
+      </c>
+      <c r="L2">
+        <v>4699</v>
+      </c>
+      <c r="M2">
+        <v>4595</v>
+      </c>
+      <c r="N2">
+        <v>4998</v>
+      </c>
+      <c r="O2">
+        <v>4998</v>
       </c>
     </row>
   </sheetData>

--- a/controller/src/main/resources/jxls_templates/bumenrenjianfei.xlsx
+++ b/controller/src/main/resources/jxls_templates/bumenrenjianfei.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PFANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.I7HNJ62BKRDWMSV\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB34D33-5671-466E-A6A7-80A8B473D9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7F4E2B-E2CB-448B-B66A-09A8E4EB27FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
+    <sheet name="forData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>员工RANK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4月●</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,11 +84,101 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>R3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ASDC1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R3</t>
+  </si>
+  <si>
+    <t>ASDC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDC3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPDC</t>
+  </si>
+  <si>
+    <t>GSDC</t>
+  </si>
+  <si>
+    <t>ISDC</t>
+  </si>
+  <si>
+    <t>DSDC</t>
+  </si>
+  <si>
+    <t>HAPO</t>
+  </si>
+  <si>
+    <t>FAPO</t>
+  </si>
+  <si>
+    <t>DPPO</t>
+  </si>
+  <si>
+    <t>SDEO</t>
+  </si>
+  <si>
+    <t>NBPO</t>
+  </si>
+  <si>
+    <t>R4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R8C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R8B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R8A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R9A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R9B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R11A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R11B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -439,92 +526,188 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>2021</v>
-      </c>
-      <c r="D2">
-        <v>50099</v>
-      </c>
-      <c r="E2">
-        <v>5005</v>
-      </c>
-      <c r="F2">
-        <v>4999</v>
-      </c>
-      <c r="G2">
-        <v>4995</v>
-      </c>
-      <c r="H2">
-        <v>4899</v>
-      </c>
-      <c r="I2">
-        <v>4895</v>
-      </c>
-      <c r="J2">
-        <v>4399</v>
-      </c>
-      <c r="K2">
-        <v>4299</v>
-      </c>
-      <c r="L2">
-        <v>4699</v>
-      </c>
-      <c r="M2">
-        <v>4595</v>
-      </c>
-      <c r="N2">
-        <v>4998</v>
-      </c>
-      <c r="O2">
-        <v>4998</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{750DD4FB-A763-4D02-A1D9-EEFC3FB6A083}">
+          <x14:formula1>
+            <xm:f>forData!$C$3:$C$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4AB36595-E52C-4BD0-82A2-05ED4D70C9A0}">
+          <x14:formula1>
+            <xm:f>forData!$B$3:$B$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDC6C30-070C-48C1-ACC8-3277B2046428}">
+  <dimension ref="B2:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/controller/src/main/resources/jxls_templates/bumenrenjianfei.xlsx
+++ b/controller/src/main/resources/jxls_templates/bumenrenjianfei.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.I7HNJ62BKRDWMSV\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7F4E2B-E2CB-448B-B66A-09A8E4EB27FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7801CF-1BC4-4D3C-9F9C-F25BB16BF499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>员工RANK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,17 @@
   </si>
   <si>
     <t>4月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R4新人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R5新人</t>
+  </si>
+  <si>
+    <t>日本出项者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,7 +521,7 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -571,7 +582,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{750DD4FB-A763-4D02-A1D9-EEFC3FB6A083}">
           <x14:formula1>
-            <xm:f>forData!$C$3:$C$15</xm:f>
+            <xm:f>forData!$C$3:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
@@ -589,10 +600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDC6C30-070C-48C1-ACC8-3277B2046428}">
-  <dimension ref="B2:C15"/>
+  <dimension ref="B2:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -706,8 +717,24 @@
         <v>39</v>
       </c>
     </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/controller/src/main/resources/jxls_templates/bumenrenjianfei.xlsx
+++ b/controller/src/main/resources/jxls_templates/bumenrenjianfei.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.I7HNJ62BKRDWMSV\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PFANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7801CF-1BC4-4D3C-9F9C-F25BB16BF499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7DEBD0-0F27-4061-A030-3FE9A067C04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,7 +189,7 @@
     <t>R5新人</t>
   </si>
   <si>
-    <t>日本出项者</t>
+    <t>日本出向者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +521,7 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -603,7 +603,7 @@
   <dimension ref="B2:C18"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/controller/src/main/resources/jxls_templates/bumenrenjianfei.xlsx
+++ b/controller/src/main/resources/jxls_templates/bumenrenjianfei.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.I7HNJ62BKRDWMSV\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PFANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7F4E2B-E2CB-448B-B66A-09A8E4EB27FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7DEBD0-0F27-4061-A030-3FE9A067C04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>员工RANK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,17 @@
   </si>
   <si>
     <t>4月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R4新人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R5新人</t>
+  </si>
+  <si>
+    <t>日本出向者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,7 +582,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{750DD4FB-A763-4D02-A1D9-EEFC3FB6A083}">
           <x14:formula1>
-            <xm:f>forData!$C$3:$C$15</xm:f>
+            <xm:f>forData!$C$3:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
@@ -589,10 +600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDC6C30-070C-48C1-ACC8-3277B2046428}">
-  <dimension ref="B2:C15"/>
+  <dimension ref="B2:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -706,8 +717,24 @@
         <v>39</v>
       </c>
     </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>